--- a/src/my_rag/evaluations/results/rag_evaluations_embedder_dunzhang_stella_en_1.5B_v5_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_HuggingFace QA Dataset.xlsx
+++ b/src/my_rag/evaluations/results/rag_evaluations_embedder_dunzhang_stella_en_1.5B_v5_llm_anthropic.claude-3-5-sonnet-20240620-v1_0_dataset_HuggingFace QA Dataset.xlsx
@@ -480,7 +480,7 @@
       <c r="C2" t="inlineStr">
         <is>
           <t>Based on the context provided, here are the steps for a user to claim authorship of a paper on the Hugging Face Hub:
-1. Go to the Paper page for your paper on the Hugging Face Hub.
+1. Go to the Paper page for the paper you authored.
 2. Find your name listed as an author on the Paper page.
 3. Click on your name.
 4. Click the "claim authorship" option.
@@ -488,11 +488,8 @@
 6. On the paper settings page, confirm the authorship request.
 7. The Hugging Face admin team will then validate your request.
 8. Once confirmed, the Paper page will show your authorship as verified.
-Additionally, the context mentions that:
-- The Hub attempts to automatically match papers to users based on their email.
-- You can manage which verified papers show on your profile by going to your Papers settings and using the "Show on profile" checkbox.
-- If a paper is not already indexed on the Hub, you can add it by searching for it on the main Papers page or visiting hf.co/papers/[arxiv_id].
-So in summary, the key steps are finding your paper, clicking your name to claim authorship, confirming in settings, and waiting for admin verification. The Hub tries to automate this process where possible, but provides this manual claiming option as well.</t>
+The context also mentions that the Hub attempts to automatically match papers to users based on their email. So in some cases, authorship may already be linked to your account automatically.
+If your paper is not showing up in your profile after being verified, you can go to your Papers settings and use the "Show on profile" checkbox to control which verified papers appear on your profile.</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -530,17 +527,16 @@
 from accelerate import Accelerator
 accelerator = Accelerator(mixed_precision='fp16')
 ```
-This will force the use of 16-bit floating point (FP16) mixed precision training.
-You can also use other options for mixed precision:
-- For bfloat16 mixed precision:
+This will force FP16 mixed precision training regardless of the environment settings.
+You can also use 'bf16' for bfloat16 mixed precision if your hardware supports it:
 ```python
 accelerator = Accelerator(mixed_precision='bf16')
 ```
-- For 8-bit floating point mixed precision (if supported by your hardware):
-```python  
-accelerator = Accelerator(mixed_precision='fp8')
+Or if you want to use the default precision determined by the environment or launch command:
+```python 
+accelerator = Accelerator()
 ```
-By setting the `mixed_precision` parameter, you're explicitly telling Accelerate to use mixed precision training, regardless of any other settings or environment variables. This gives you direct control over the precision used in your training loop when using Accelerate.</t>
+The `mixed_precision` parameter allows you to explicitly set the precision, overriding any automatic detection. This gives you direct control over enabling mixed precision training when initializing the Accelerator.</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -573,11 +569,11 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Based on the context provided, here are the steps to install the Hugging Face Unity API in your Unity project:
+          <t>To install the Hugging Face Unity API in your Unity project, follow these steps:
 1. Open your Unity project
 2. Go to Window -&gt; Package Manager
 3. Click the + button and select "Add Package from git URL"
-4. Enter https://github.com/huggingface/unity-api.git
+4. Enter "https://github.com/huggingface/unity-api.git"
 5. Once installed, the Unity API wizard should pop up automatically. If it doesn't, go to Window -&gt; Hugging Face API Wizard
 6. In the API Wizard, enter your Hugging Face API key (which can be created in your Hugging Face account settings)
 7. Test the API key by clicking "Test API key" in the wizard
@@ -619,27 +615,27 @@
         <is>
           <t>To run a Gradio Blocks app in reload mode using a Python IDE, you can follow these steps:
 1. Save your Gradio app code in a Python file, for example `run.py`.
-2. Instead of running the file with `python run.py`, use the `gradio` command in the terminal:
-   ```
-   gradio run.py
-   ```
-3. This will run the app in reload mode, where Gradio will watch for changes to the file and automatically reload the app when you save changes.
-4. Make sure your Gradio Blocks app is named `demo` in your code, like this:
-   ```python
-   with gr.Blocks() as demo:
-       # Your app code here
-   ```
-5. If you named your app something other than `demo`, you need to specify the name when running:
-   ```
-   gradio run.py my_app_name
-   ```
-6. You can now edit your `run.py` file in your IDE, save changes, and see the app reload automatically without having to restart it manually.
-7. The terminal will show a message like:
-   ```
-   Watching: '/path/to/your/directory'
-   Running on local URL: http://127.0.0.1:7860
-   ```
-This allows for faster development as you can make changes and immediately see them reflected in the running app without having to manually stop and restart it each time.</t>
+2. Make sure your Blocks app is named `demo`. For example:
+```python
+import gradio as gr
+with gr.Blocks() as demo:
+    # Your Gradio app code here
+if __name__ == "__main__":
+    demo.launch()
+```
+3. Open a terminal and navigate to the directory containing your `run.py` file.
+4. Instead of running `python run.py`, use the `gradio` command:
+```
+gradio run.py
+```
+This will run your app in reload mode. Gradio will watch for changes to your `run.py` file and automatically reload the app when you save changes.
+Key points:
+- Use the `gradio` command instead of `python` to run the file
+- Your Blocks app should be named `demo` by default
+- If you named your app something else, you can specify it like: `gradio run.py my_demo_name`
+- Gradio will watch for file changes and auto-reload the app
+- This allows you to quickly iterate on your app without manually restarting it
+The reload mode makes it much faster and more convenient to develop Gradio apps in a Python IDE.</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -707,9 +703,15 @@
       <c r="C7" t="inlineStr">
         <is>
           <t>Based on the context provided, the "duorc" dataset has 6 splits. Specifically, the example JSON response shows:
-- 3 splits for the "ParaphraseRC" configuration: train, validation, test
-- 3 splits for the "SelfRC" configuration: train, validation, test
-So in total, there are 6 splits listed for the "duorc" dataset.</t>
+- 3 splits for the "ParaphraseRC" configuration:
+  - train
+  - validation 
+  - test
+- 3 splits for the "SelfRC" configuration:
+  - train
+  - validation
+  - test
+So in total, there are 6 splits across the two configurations of the "duorc" dataset.</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -742,13 +744,16 @@
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>The `HfApi` class allows you to retrieve Discussions and Pull Requests from a given repository on the Hugging Face Hub. Specifically, you can use the `get_repo_discussions` method of `HfApi` to retrieve Discussions and Pull Requests. For example:
+          <t>The `HfApi` class allows you to retrieve Discussions and Pull Requests from a given repository on the Hugging Face Hub.
+Specifically, the `get_repo_discussions` method of `HfApi` can be used to retrieve Discussions and Pull Requests. For example:
 ```python
 from huggingface_hub import get_repo_discussions
 for discussion in get_repo_discussions(repo_id="bigscience/bloom"):
     print(f"{discussion.num} - {discussion.title}, pr: {discussion.is_pull_request}")
 ```
-This will iterate through and print information about all the Discussions and Pull Requests for the specified repository.</t>
+This will retrieve and print information about all Discussions and Pull Requests for the specified repository.
+The `get_repo_discussions` method returns a generator that yields `Discussion` objects containing high-level information about each Discussion or Pull Request. You can filter the results by author, type (Pull Request or Discussion), and status (open or closed).
+For more detailed information about a specific Discussion or Pull Request, you can use the `get_discussion_details` method of `HfApi`.</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -783,7 +788,7 @@
         <is>
           <t>Based on the context provided, the TensorFlow API function used to load a saved tensor file is:
 safetensors.tensorflow.load_file
-This function is mentioned in the autodoc section at the beginning of the context, which lists the key TensorFlow API functions for working with safetensors.</t>
+This function is part of the safetensors library and allows loading tensor files saved in the safetensors format using TensorFlow.</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -850,12 +855,11 @@
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>The `tokenizers-linux-x64-musl` binary is designed for the x86_64-unknown-linux-musl architecture. This can be inferred from the context provided, which states:
-"This is the **x86_64-unknown-linux-musl** binary for `tokenizers`"
-This indicates that the binary is:
-- For x86_64 (64-bit x86) processors
-- For Linux operating systems
-- Built using the musl C library (as opposed to glibc)</t>
+          <t>The `tokenizers-linux-x64-musl` binary is designed for the x86_64-unknown-linux-musl architecture. This can be inferred from the name of the binary, which specifies:
+- linux: It's for Linux operating systems
+- x64: Indicates 64-bit architecture
+- musl: Refers to the musl C standard library implementation
+So this binary is specifically compiled for 64-bit Linux systems using the musl libc, which is commonly used for creating statically linked executables on Linux.</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -892,7 +896,7 @@
 1. Load a dataset from the Hugging Face Hub.
 2. Preprocess the data with Dataset.map().
 3. Load and compute metrics.
-The introduction states that in Chapter 3, readers "saw that there were three main steps when it came to fine-tuning a model" and then lists these three steps specifically.</t>
+The introduction specifically mentions these three steps as what was covered in Chapter 3 regarding fine-tuning a model using the 🤗 Datasets library.</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -925,14 +929,10 @@
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>According to the context, the two parameter-reduction techniques proposed in the ALBERT model are:
+          <t>Based on the context provided, the two parameter-reduction techniques proposed in the ALBERT model are:
 1. Splitting the embedding matrix into two smaller matrices.
 2. Using repeating layers split among groups.
-The passage states:
-"It presents two parameter-reduction techniques to lower memory consumption and increase the training speed of BERT:
-- Splitting the embedding matrix into two smaller matrices.
-- Using repeating layers split among groups."
-These techniques allow ALBERT to reduce memory usage and train faster compared to the original BERT model.</t>
+The context states that ALBERT presents "two parameter-reduction techniques to lower memory consumption and increase the training speed of BERT" and then lists these two specific techniques.</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -966,17 +966,14 @@
       <c r="C14" t="inlineStr">
         <is>
           <t>Based on the context provided, Gradio can be used for several purposes:
-1. Create demos for machine learning models - With just a few lines of Python code, you can generate a demo interface for your ML model using Gradio's library of pre-built components.
-2. Share machine learning models with others - Using the `share=True` parameter in the launch method, you can generate a shareable link to send your demo to anyone.
-3. Debug models - Gradio demos allow you to test your model with real data that you can change and observe the model's predictions change in real-time, helping you debug your model.
-4. Launch demos from various environments - You can create and launch Gradio demos from standard Python IDEs, Google Colab notebooks, and Jupyter notebooks.
-5. Work with multiple inputs and outputs - Gradio supports interfaces with multiple input and output components.
-6. Add state for data persistence - You can add state to your Gradio interface to persist data between function calls.
-7. Add authentication - You can add username/password authentication to your demos.
-8. Load models from Hugging Face's model hub or Spaces - You can easily load and use models hosted on Hugging Face using Gradio.
-9. Customize layouts - Gradio allows you to customize the layout of your demo using rows, columns, tabs, etc.
-10. Create interactive interfaces - You can create interfaces where users can input data and see real-time outputs.
-So in summary, Gradio is a versatile tool for creating, sharing, debugging, and interacting with machine learning models through customizable web interfaces.</t>
+1. Create demos for machine learning models - You can use Gradio to quickly create interactive demos for ML models with just a few lines of Python code.
+2. Share machine learning models with others - Using the `share=True` parameter when launching a demo, you can generate a shareable link to send to others.
+3. Debug models - Gradio demos allow you to test models with real data that you can change and observe the model's predictions in real-time, helping with debugging.
+4. Develop interfaces rapidly - Gradio provides tools like auto-reloading and Jupyter notebook magic commands to enable fast development of interfaces.
+5. Customize layouts - Gradio's Blocks API allows fine-grained control over the layout and appearance of demos.
+6. Create multi-step demos - You can build more complex interfaces with multiple steps or components.
+7. Load and use Hugging Face models - Gradio integrates with the Hugging Face Hub to easily load and demo models.
+So in summary, Gradio is a versatile tool for quickly building, testing, sharing and iterating on machine learning model interfaces and demos. It works with various types of models and data, not just NLP.</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -1009,11 +1006,17 @@
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>According to the context provided, to install the requirements for a research project using 🤗 Transformers, you should run the following command inside the folder of the project you want to use:
+          <t>Based on the context provided, to install the requirements for a research project using 🤗 Transformers, you should run the following command inside the folder of the project you want to use:
 ```
 pip install -r requirements.txt
 ```
-This will install the specific dependencies listed in the requirements.txt file for that particular research project.</t>
+The context states:
+"To use any of them, just run the command
+```
+pip install -r requirements.txt
+```
+inside the folder of your choice."
+This command will install the specific requirements listed in the requirements.txt file for that particular research project.</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -1090,7 +1093,7 @@
 2. Sequence-to-sequence models
 Specifically, the context states:
 "Retrieval-augmented generation ("RAG") models combine the powers of pretrained dense retrieval (DPR) and sequence-to-sequence models. RAG models retrieve documents, pass them to a seq2seq model, then marginalize to generate outputs."
-So RAG models use a retrieval component to fetch relevant documents, and a seq2seq component to generate outputs based on those retrieved documents.</t>
+So RAG models use a retrieval component to fetch relevant documents, and a seq2seq model to generate outputs based on those retrieved documents.</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1123,10 +1126,10 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>According to the context, the more secure file format recommended for saving and storing PyTorch model weights is `.safetensors`.
+          <t>According to the context, PyTorch model weights can be saved and stored more securely in the `.safetensors` format instead of the commonly used `.bin` files.
 Specifically, the context states:
 "To save and store your model weights in the more secure `safetensor` format, we recommend converting your weights to `.safetensors`."
-So PyTorch model weights are commonly saved as `.bin` files, but can be converted to the more secure `.safetensors` format.</t>
+The `.safetensors` format is presented as a more secure alternative to the typical `.bin` files that use Python's `pickle` utility for storing PyTorch model weights.</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1162,7 +1165,7 @@
           <t>Based on the context provided, to add custom Python dependencies for Inference Endpoints, you should add a `requirements.txt` file to your model repository on the Hugging Face Hub.
 Specifically, the context states:
 "To add custom dependencies, add a `requirements.txt` [file](https://huggingface.co/philschmid/distilbert-onnx-banking77/blob/main/requirements.txt) with the Python dependencies you want to install in your model repository on the Hugging Face Hub. When your Endpoint and Image artifacts are created, Inference Endpoints checks if the model repository contains a `requirements.txt ` file and installs the dependencies listed within."
-So the correct file to add is a `requirements.txt` file containing the list of Python dependencies you want to install for your Inference Endpoint.</t>
+So the correct file to add is a `requirements.txt` file listing the custom Python dependencies you want installed for your Inference Endpoint.</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1199,7 +1202,7 @@
 ```bash
 pip install --upgrade-strategy eager optimum["openvino"]
 ```
-This command installs Optimum Intel with the `--upgrade-strategy eager` option to ensure it uses the latest version of `optimum-intel`.</t>
+The context specifies that you need to use the `--upgrade-strategy eager` option to ensure the latest version of `optimum-intel` is installed.</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1236,7 +1239,7 @@
 ```bash
 python -m spacy huggingface-hub push en_ner_fashion-0.0.0-py3-none-any.whl
 ```
-This command uses the `spacy-huggingface-hub` library to extend the spaCy CLI with a new `huggingface-hub push` command. It allows you to easily share your packaged spaCy model on the Hugging Face Hub.
+This command uses the `spacy-huggingface-hub` library to extend the spaCy CLI with a new `huggingface-hub push` command. It allows you to easily share your packaged spaCy models on the Hugging Face Hub.
 The full process to package and upload a spaCy model involves these steps:
 1. Log in to Hugging Face:
    ```bash
@@ -1246,15 +1249,15 @@
    ```bash
    python -m spacy package ./en_ner_fashion ./output --build wheel
    ```
-3. Navigate to the package directory:
+3. Change to the directory containing the packaged model:
    ```bash
    cd ./output/en_ner_fashion-0.0.0/dist
    ```
-4. Upload the packaged model to Hugging Face Hub:
+4. Upload the model to the Hugging Face Hub:
    ```bash
    python -m spacy huggingface-hub push en_ner_fashion-0.0.0-py3-none-any.whl
    ```
-This process allows you to quickly upload your spaCy pipeline to the Hugging Face Hub, making it easy to share with the community and use directly in the browser.</t>
+This allows you to quickly upload your packaged spaCy model to the Hub, where it can be shared with the community and used directly in the browser.</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1296,9 +1299,9 @@
 ```bash
 ./run.sh --stage 15 --skip_upload_hf false --hf_repo username/model_repo
 ```"
-This command uses the `run.sh` script with the following key options:
-- `--stage 15`: Specifies the stage for uploading
-- `--skip_upload_hf false`: Enables uploading to Hugging Face (doesn't skip it)
+This command runs the `run.sh` script with the following options:
+- `--stage 15`: Specifies the stage to run (likely the upload stage)
+- `--skip_upload_hf false`: Enables uploading to Hugging Face (does not skip it)
 - `--hf_repo username/model_repo`: Specifies the Hugging Face repository to upload to, where you would replace "username/model_repo" with your actual username and desired repository name.</t>
         </is>
       </c>
@@ -1335,7 +1338,7 @@
           <t>Based on the context provided, the default checkpoint used by the sentiment analysis pipeline in the Transformers library is:
 distilbert-base-uncased-finetuned-sst-2-english
 Specifically, the context states:
-"Here, the checkpoint used by default for the sentiment analysis pipeline is distilbert-base-uncased-finetuned-sst-2-english."</t>
+"Here, the checkpoint used by default for the sentiment analysis pipeline is distilbert-base-uncased-finetuned-sst2-english."</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1443,7 +1446,7 @@
 Specifically, the context states:
 "In `gradio.Interface` there are [four parameters](https://gradio.app/docs/#interface-header) that control how flagging works. We'll go through them in detail.
 - `allow_flagging`: This parameter can be set to `"manual"` (the default), `"auto"` or `"never"`."
-So the default value for `allow_flagging` is "manual", which means users will see a flagging button and samples will only be flagged when the button is clicked.</t>
+So the default value for `allow_flagging` is "manual", which means users will see a flag button and samples will only be flagged when the button is clicked.</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1478,7 +1481,7 @@
         <is>
           <t>According to the context provided, for the base BERT model, the dimension of the feature vector (or numerical representation) for each word is 768. Specifically, the passage states:
 "The dimension of that vector is defined by the architecture of the model, for the base BERT model, it is 768."
-So each word that is passed through the BERT encoder is converted into a vector with 768 dimensions.</t>
+So for the base BERT model, each word is represented by a vector of 768 values after being processed by the encoder.</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1511,17 +1514,17 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>Based on the context provided, the file size limit for syncing to Hugging Face Spaces without using Git-LFS is 10MB.
+          <t>According to the context provided, the file size limit for syncing to Hugging Face Spaces without using Git-LFS is 10MB.
 Specifically, the context states:
 "Remember that for files larger than 10MB, Spaces requires Git-LFS. If you don't want to use Git-LFS, you may need to review your files and check your history."
-It also provides an example GitHub Action that checks for files over 10MB:
+It also provides an example GitHub Action that checks for files exceeding this 10MB limit:
 ```yaml
 - name: Check large files
   uses: ActionsDesk/lfs-warning@v2.0
   with:
     filesizelimit: 10485760 # this is 10MB so we can sync to HF Spaces
 ```
-So the file size limit for syncing to HF Spaces without Git-LFS is 10MB. Files larger than 10MB require using Git-LFS to sync to Spaces.</t>
+So the file size limit for syncing to HF Spaces without Git-LFS is 10MB.</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1558,10 +1561,9 @@
 - Person
 - Location 
 - Organization
-The task involves labeling each token in a sentence with one class for each entity type, and another class for tokens that do not belong to any entity. 
 Specifically, the video transcript states:
 "The goal of this task is to find the entities in a piece of text, such as person, location, or organization. This task is formulated as labelling each token with one class for each entity, and another class for tokens that have no entity."
-So in summary, NER aims to identify and categorize key entities mentioned in text by assigning appropriate entity labels to the relevant tokens.</t>
+So NER aims to identify and categorize key entities mentioned in text by assigning appropriate entity labels to individual tokens or words.</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1628,19 +1630,10 @@
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>According to the benchmark results provided in the context, Hugging Face Infinity achieved up to 800% higher throughput compared to vanilla transformers.
-Specifically, the throughput comparison table shows the following improvements:
-- For sequence length 8: 506% improvement (248 req/sec vs 49 req/sec)
-- For sequence length 16: 424% improvement (212 req/sec vs 50 req/sec)
-- For sequence length 32: 375% improvement (150 req/sec vs 40 req/sec)
-- For sequence length 64: 346% improvement (97 req/sec vs 28 req/sec)
-- For sequence length 128: 305% improvement (55 req/sec vs 18 req/sec)
-- For sequence length 256: 300% improvement (27 req/sec vs 9 req/sec)
-- For sequence length 384: 340% improvement (17 req/sec vs 5 req/sec)
-- For sequence length 512: 300% improvement (12 req/sec vs 4 req/sec)
-The maximum improvement shown is 506% for sequence length 8, which corresponds to about a 5x or 500% increase in throughput.
-Additionally, the conclusion section states:
-"Hugging Face Infinity can deliver up to 800% higher throughput compared to vanilla transformers, and down to 1-4ms latency for sequence lengths up to 64 tokens."
+          <t>According to the benchmark results provided in the context, Hugging Face Infinity achieved up to 800% higher throughput compared to vanilla transformers. Specifically, the throughput comparison table shows:
+- For sequence length 8, Infinity achieved 248 req/sec compared to 49 req/sec for Transformers, an improvement of 506%.
+- The maximum improvement listed is 506% for sequence length 8.
+- The text also states: "Hugging Face Infinity can deliver up to 800% higher throughput compared to vanilla transformers"
 So the maximum improvement in throughput achieved by Hugging Face Infinity compared to vanilla transformers is 800%.</t>
         </is>
       </c>
@@ -1674,7 +1667,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>According to the context, in Transformers version 4.18.0 and later, model checkpoints that are larger than 10GB are automatically sharded into smaller pieces. Specifically:
+          <t>According to the context provided, in Transformers version 4.18.0 and later, model checkpoints that are larger than 10GB are automatically sharded into smaller pieces. Specifically:
 "Since version 4.18.0, model checkpoints that end up taking more than 10GB of space are automatically sharded in smaller pieces."
 So the maximum size before automatic sharding is 10GB.</t>
         </is>
@@ -1709,7 +1702,7 @@
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>Based on the context provided, the most popular vision transformer model on the Hugging Face Model Hub for image classification is google/vit-base-patch16-224. Specifically, the context states:
+          <t>According to the context provided, the most popular vision transformer model on the Hugging Face Model Hub for image classification is google/vit-base-patch16-224. Specifically, the passage states:
 "At the time of writing, the most popular one is `google/vit-base-patch16-224`, which has been trained on ImageNet images at a resolution of 224x224 pixels. We will use this model for our demo."</t>
         </is>
       </c>
@@ -1743,7 +1736,7 @@
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>Based on the context provided, the large multimodal model that can solve image-text tasks and is based on Flamingo is called IDEFICS. Specifically, the context mentions:
+          <t>Based on the context provided, the large multimodal model that can solve image-text tasks and is based on Flamingo is called IDEFICS. Specifically, the context states:
 "IDEFICS is an open-access vision and language model based on Flamingo, a state-of-the-art visual language model initially developed by DeepMind. The model accepts arbitrary sequences of image and text inputs and generates coherent text as output."</t>
         </is>
       </c>
@@ -1777,7 +1770,11 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>The new library introduced by Hugging Face for hosting scikit-learn models is called Skops.</t>
+          <t>The new library introduced by Hugging Face for hosting scikit-learn models is called Skops.
+The key details from the context are:
+1. "We are thrilled to introduce you to our new library: Skops!"
+2. "With Skops, you can host your scikit-learn models on the Hugging Face Hub, create model cards for model documentation and collaborate with others."
+So Skops is the new library that allows hosting scikit-learn models on the Hugging Face Hub.</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1811,8 +1808,9 @@
       <c r="C36" t="inlineStr">
         <is>
           <t>The open-source library created by Hugging Face to simplify Transformer acceleration is called Optimum.
-Specifically, the passage mentions:
-"Optimum is an open-source library created by Hugging Face to simplify Transformer acceleration across a growing range of training and inference devices."</t>
+Specifically, the context mentions:
+"Optimum is an open-source library created by Hugging Face to simplify Transformer acceleration across a growing range of training and inference devices."
+It also mentions Optimum Intel as part of Optimum, which builds on top of the Intel Neural Compressor to provide optimization for Intel hardware.</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1846,7 +1844,7 @@
       <c r="C37" t="inlineStr">
         <is>
           <t>Based on the context provided, the pretraining objective of the Wav2Vec2 context network is a contrastive task. Specifically:
-The pretraining objective of the context network is a contrastive task. The model has to predict the true quantized speech representation of the masked prediction from a set of false ones, encouraging the model to find the most similar context vector and quantized speech unit (the target label).</t>
+The context network has to predict the true quantized speech representation of the masked prediction from a set of false ones. This encourages the model to find the most similar context vector and quantized speech unit (the target label).</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1884,10 +1882,11 @@
 2. To serve as a modular toolbox for both inference and training of diffusion models.
 3. To be a natural extension of PyTorch, following many of PyTorch's design principles.
 4. To prioritize usability and simplicity over performance and complex abstractions.
-5. To be lightweight with minimal required dependencies, while allowing optional performance-enhancing features.
-6. To enable easy tweaking and customization of diffusion pipelines and components.
-7. To be contributor-friendly and facilitate community contributions through its design choices.
-The library aims to be a flexible and accessible tool for working with diffusion models, balancing ease of use with the ability to customize and extend functionality. It focuses on providing pre-trained models and modular components that researchers and practitioners can easily work with and adapt.</t>
+5. To be lightweight with minimal required dependencies, while offering optional performance enhancements.
+6. To provide explicit and simple APIs that give users control and allow for easy customization and debugging.
+7. To be contributor-friendly by keeping code self-contained and avoiding hasty abstractions.
+8. To serve as an accessible and reproducible resource for diffusion model research and applications.
+The library aims to balance being easy to use for inference while also providing the flexibility for researchers and developers to customize and build upon the components for their own work with diffusion models.</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1920,15 +1919,20 @@
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>Fully Sharded Data Parallel (FSDP) is a distributed training technique developed for training very large models, with the following key purposes:
-1. Enable training of larger models: FSDP allows training models with billions of parameters by sharding (splitting) the model parameters, gradients, and optimizer states across multiple GPUs/machines. This overcomes memory limitations of individual GPUs.
-2. Improve memory efficiency: By sharding model components, FSDP reduces the memory footprint on each GPU compared to regular data parallel training. This allows using larger batch sizes or model sizes.
-3. Support CPU offloading: FSDP can offload sharded model parameters to CPU memory, further reducing GPU memory usage.
-4. Scale to very large models: FSDP is designed to scale to models with hundreds of billions or even trillions of parameters by distributing the model across many GPUs/machines.
-5. Maintain training efficiency: While sharding adds some communication overhead, FSDP aims to maintain good training efficiency and speed through optimized communication.
-6. Enable fine-tuning of very large models: The memory efficiency of FSDP allows fine-tuning of massive pretrained models that wouldn't fit on a single GPU otherwise.
-7. Work with existing PyTorch models: FSDP can be applied to existing PyTorch models with minimal code changes.
-In summary, FSDP enables distributed training of extremely large neural networks that would not be feasible with standard data parallelism, while aiming to maintain good efficiency. It's particularly useful for training and fine-tuning large language models and other massive neural networks.</t>
+          <t>Fully Sharded Data Parallel (FSDP) is a technique developed for distributed training of large pretrained models, with the following key purposes:
+1. To enable training of very large models (up to 1 trillion parameters) that would not fit on a single GPU.
+2. To shard (split up) the model parameters, gradients, and optimizer states across multiple GPUs/processes. This allows scaling to larger model sizes.
+3. To improve memory efficiency by only keeping a portion of the model on each GPU, rather than replicating the full model.
+4. To optionally offload sharded model parameters to CPU memory, further reducing GPU memory usage.
+5. To allow scaling training to larger batch sizes or model sizes than would be possible with standard data parallel approaches.
+6. To maintain similar performance and convergence characteristics as data parallel training while enabling much larger models.
+Some key points about FSDP:
+- It shards model parameters, gradients and optimizer states across processes, unlike regular data parallel which replicates the full model.
+- It can offload parameters to CPU to further reduce GPU memory usage.
+- It allows training models that are too large to fit on a single GPU.
+- It aims to be more memory efficient than other distributed training approaches for very large models.
+- It is designed to work with minimal changes to existing PyTorch training code.
+So in summary, FSDP enables distributed training of extremely large models by sharding model state across GPUs in a memory-efficient manner. This allows researchers and practitioners to scale up to trillion parameter models that would not be feasible to train otherwise.</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1966,7 +1970,7 @@
 2. To teach new concepts to Stable Diffusion using just 3-5 example images.
 3. To learn new text embeddings from a few example images, which can then be loaded into the text encoder.
 4. To produce a very small file (a few KBs) containing the new embeddings that can personalize the model.
-Textual Inversion allows users to fine-tune text-to-image models on a small set of images to learn new concepts or styles, which can then be invoked during inference by using special tokens in the text prompt.</t>
+Textual Inversion allows users to fine-tune text-to-image models on a small set of images to learn new concepts or personalize the model's output, without having to retrain the entire model. This enables customization of the model's capabilities using minimal data and computational resources.</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
@@ -1999,16 +2003,12 @@
       </c>
       <c r="C41" t="inlineStr">
         <is>
-          <t>Based on the context provided, Weights and Biases (W&amp;B) serves the following purposes for data scientists and machine learning scientists:
-1. It allows them to track their machine learning experiments at every stage, from training to production.
-2. It enables aggregation of any metric over samples.
-3. It provides customizable and searchable dashboards to visualize experiment results.
-4. It allows logging and tracking of various aspects of machine learning experiments, such as:
-   - Logging configuration parameters
-   - Logging images and other artifacts
-   - Tracking metrics over training iterations
-5. It helps in experiment management and reproducibility by providing a centralized place to store experiment details, results, and artifacts.
-The key benefit is that W&amp;B provides comprehensive experiment tracking and visualization capabilities, allowing researchers and practitioners to better monitor, compare, and analyze their machine learning workflows and results.</t>
+          <t>Based on the context provided, Weights and Biases (W&amp;B) allows data scientists and machine learning scientists to:
+1. Track their machine learning experiments at every stage, from training to production.
+2. Aggregate any metric over samples and display them in panels on a customizable and searchable dashboard.
+Specifically, the context states:
+"Weights and Biases (W&amp;B) allows data scientists and machine learning scientists to track their machine learning experiments at every stage, from training to production. Any metric can be aggregated over samples and shown in panels in a customizable and searchable dashboard"
+So W&amp;B provides experiment tracking, metric aggregation, and visualization capabilities to help data scientists and ML researchers monitor and analyze their machine learning workflows and results.</t>
         </is>
       </c>
       <c r="D41" t="inlineStr">
@@ -2045,7 +2045,7 @@
 Ensure the app is running
 Specifically, the context states:
 "- /healthcheck: Ensure the app is running"
-So the purpose of this endpoint is to check if the Datasets server API application is up and operational. It likely returns a simple response to indicate the API is functioning and accessible.</t>
+So the purpose of the /healthcheck endpoint is to check if the Datasets server API application is up and running properly. This type of health check endpoint is commonly used to verify the status and availability of a service or API.</t>
         </is>
       </c>
       <c r="D42" t="inlineStr">
@@ -2085,8 +2085,8 @@
    - Zero-shot subject-driven generation 
    - Efficient fine-tuning for customized subjects with up to 20x speedup
 4. It can be flexibly combined with existing techniques like ControlNet and prompt-to-prompt to enable novel subject-driven generation and editing applications.
-5. The model uses a diffusion-based approach, with pipelines provided for both standard generation (BlipDiffusionPipeline) and ControlNet-guided generation (BlipDiffusionControlNetPipeline).
-In summary, the main purpose of BLIP-Diffusion is to enable more efficient and flexible subject-driven text-to-image generation and editing, overcoming limitations of previous approaches through its novel multimodal encoder and pre-training strategy.</t>
+5. The model aims to create novel renditions of an input subject based on text prompts, while better preserving subject fidelity compared to existing approaches.
+In summary, the main purpose of BLIP-Diffusion is to enable more efficient and effective subject-driven text-to-image generation and editing, with improved subject fidelity and zero-shot capabilities compared to previous models.</t>
         </is>
       </c>
       <c r="D43" t="inlineStr">
@@ -2120,14 +2120,13 @@
       <c r="C44" t="inlineStr">
         <is>
           <t>Based on the context provided, the Safety Checker in the Diffusers library serves the following purpose:
-The Safety Checker checks and compares the class probability of a set of hard-coded harmful concepts in the embedding space against an image after it has been generated. Its goal is to detect potentially inappropriate or harmful content in generated images.
-Specifically:
-- It operates on images after they have been generated by the diffusion model.
-- It checks for a set of predefined "harmful concepts" in the embedding space of the generated image.
-- The harmful concepts are intentionally hidden/not disclosed to prevent reverse engineering of the checker.
-- It compares the probability of these harmful concepts being present in the generated image against some threshold.
-- This allows it to flag or filter out generated images that may contain inappropriate or unsafe content.
-So in summary, the Safety Checker acts as a content moderation system to help prevent the diffusion models from outputting potentially harmful or inappropriate images. It's one of the safety mechanisms implemented in Diffusers to encourage more responsible use of the generative models.</t>
+The Safety Checker checks and compares the class probability of a set of hard-coded harmful concepts in the embedding space against an image after it has been generated. Specifically:
+1. It aims to detect potentially harmful or inappropriate content in generated images.
+2. It operates by checking the probability of predefined harmful concepts being present in the generated image.
+3. The harmful concepts are intentionally hidden/not disclosed to prevent reverse engineering of the checker.
+4. It runs after an image has been generated, as a post-processing step.
+5. It compares probabilities in the embedding space rather than on the raw pixel data.
+The Safety Checker is part of Diffusers' efforts to encourage safety in the deployment of generative AI models like Stable Diffusion. It provides a mechanism to filter out potentially problematic generated content before it is returned to users.</t>
         </is>
       </c>
       <c r="D44" t="inlineStr">
@@ -2160,18 +2159,14 @@
       </c>
       <c r="C45" t="inlineStr">
         <is>
-          <t>The purpose of the `gradio.Blocks` API in Gradio is to provide a low-level API that allows developers to have full control over the data flows and layout of their applications. Specifically:
-1. It gives more flexibility and customization options compared to the simpler `Interface` API.
-2. It allows developers to:
-   - Group related demos as multiple tabs in one web application
-   - Customize the layout of the demo, specifying where inputs and outputs are located
-   - Create multi-step interfaces where the output of one model becomes the input to another
-   - Have more flexible data flows in general
-   - Change component properties or visibility based on user input
-3. It provides fine-grained control over what events trigger function calls.
-4. It enables creating complex, multi-step applications by allowing developers to build their interfaces using "building blocks".
-5. It gives developers the ability to define the structure and behavior of their application with more precision, while still leveraging Gradio's easy-to-use components and event system.
-In essence, `Blocks` is designed for developers who need more power and customization in creating their Gradio demos, beyond what the simpler `Interface` API offers.</t>
+          <t>The purpose of the gradio.Blocks API is to provide a low-level, flexible way to build complex machine learning demos and applications. Specifically, Blocks allows you to:
+1. Have full control over the layout and data flows of your application
+2. Create multi-step interfaces where the output of one model becomes the input to another
+3. Customize the placement of inputs, outputs, and other components
+4. Group related demos together as multiple tabs in one web application  
+5. Change component properties (like visibility or choices) dynamically based on user input
+6. Build very complex applications by combining components as "building blocks"
+Compared to the higher-level gradio.Interface API, Blocks gives you much more flexibility and control, at the cost of being slightly more complex to use. It allows you to create more advanced demos and applications that go beyond what's possible with the simpler Interface API.</t>
         </is>
       </c>
       <c r="D45" t="inlineStr">
@@ -2204,14 +2199,16 @@
       </c>
       <c r="C46" t="inlineStr">
         <is>
-          <t>Based on the context provided, the purpose of the notebook "How to use DeepSpeed to train models with billions of parameters on Habana Gaudi" is to:
-Show how to use DeepSpeed to pre-train/fine-tune the 1.6B-parameter GPT2-XL model for causal language modeling on Habana Gaudi hardware.
-Specifically, it demonstrates:
-1. How to use DeepSpeed, which is a deep learning optimization library, in combination with Habana Gaudi accelerators.
-2. How to train very large language models with billions of parameters (in this case the 1.6B parameter GPT2-XL model).
-3. How to perform pre-training or fine-tuning of these large models for causal language modeling tasks.
-4. How to leverage the specialized Habana Gaudi AI accelerator hardware for training.
-The notebook aims to provide a practical guide for training massive language models efficiently using DeepSpeed optimizations on Habana Gaudi hardware.</t>
+          <t>Based on the context provided, the notebook "How to use DeepSpeed to train models with billions of parameters on Habana Gaudi" demonstrates:
+1. How to use DeepSpeed to pre-train or fine-tune large language models, specifically the 1.6 billion parameter GPT2-XL model, on Habana Gaudi hardware.
+2. It shows how to leverage DeepSpeed's capabilities to train very large models (with billions of parameters) on specialized AI accelerator hardware like Habana Gaudi.
+3. The notebook aims to showcase techniques for efficiently training large-scale language models using a combination of DeepSpeed optimization techniques and Habana Gaudi accelerators.
+The key points are:
+- Using DeepSpeed for training large models
+- Targeting the GPT2-XL model with 1.6B parameters  
+- Demonstrating this on Habana Gaudi hardware
+- Covering both pre-training and fine-tuning scenarios
+This notebook serves as a practical guide for researchers and practitioners looking to train very large language models efficiently using specialized hardware and optimization techniques.</t>
         </is>
       </c>
       <c r="D46" t="inlineStr">
@@ -2250,9 +2247,9 @@
 The purpose of this two-stage approach is to:
 1. Leverage the robust representations of images learned by contrastive models like CLIP, which capture both semantics and style.
 2. Improve image diversity with minimal loss in photorealism and caption similarity by explicitly generating image representations first.
-3. Enable the decoder to produce variations of an image that preserve its semantics and style, while varying non-essential details absent from the image representation.
+3. Enable the decoder to produce variations of an image that preserve its semantics and style, while varying non-essential details not captured in the image representation.
 4. Allow for language-guided image manipulations in a zero-shot fashion, enabled by the joint embedding space of CLIP.
-In summary, this two-stage model aims to improve image generation by first generating CLIP image embeddings and then decoding those into images, taking advantage of CLIP's learned representations to enhance diversity, controllability, and zero-shot capabilities.</t>
+So in summary, the two-stage model aims to leverage CLIP's powerful image representations to generate diverse, high-quality images that closely match text captions, while enabling flexible image manipulations.</t>
         </is>
       </c>
       <c r="D47" t="inlineStr">
@@ -2287,12 +2284,12 @@
         <is>
           <t>Based on the context provided, the purpose of the 🧨 Diffusers tutorials is to:
 1. Provide a gentle introduction to diffusion models and generative AI for beginners.
-2. Help users understand the fundamentals of the Diffusers library, including its core components and how it is meant to be used.
+2. Help users understand the fundamentals of the Diffusers library, including its core components and how it's meant to be used.
 3. Teach users how to use a pipeline for inference to rapidly generate content.
 4. Show users how to deconstruct a pipeline to understand how to use the library as a modular toolbox for building diffusion systems.
 5. Prepare users to learn how to train their own diffusion models in subsequent lessons.
 6. Give users the necessary skills to start exploring the library on their own and apply it to their own projects and applications.
-The tutorials are designed to be beginner-friendly and provide a foundation for users to get started with the Diffusers library and diffusion models in general.</t>
+The tutorials are designed to be beginner-friendly and provide a foundation for users to get started with the Diffusers library for generative AI tasks.</t>
         </is>
       </c>
       <c r="D48" t="inlineStr">
@@ -2325,13 +2322,14 @@
       </c>
       <c r="C49" t="inlineStr">
         <is>
-          <t>Based on the context provided, the purpose of tokenizers in the NLP pipeline is to:
-1. Translate text into data that can be processed by the model. 
-2. Convert raw text inputs into numerical data that models can understand and process, since models can only work with numbers.
-3. Find the most meaningful and smallest possible representation of the text for the model.
-4. Serve as a core component that bridges the gap between human-readable text and the numerical format required by machine learning models.
-The passage states: "Tokenizers are one of the core components of the NLP pipeline. They serve one purpose: to translate text into data that can be processed by the model. Models can only process numbers, so tokenizers need to convert our text inputs to numerical data."
-So in essence, tokenizers act as a crucial preprocessing step that transforms raw text into a format suitable for computational analysis and modeling in natural language processing tasks.</t>
+          <t>Based on the context provided, the purpose of tokenizers in the NLP pipeline is:
+1. To translate text into data that can be processed by the model. 
+2. To convert raw text inputs into numerical data that models can process, since models can only work with numbers.
+3. To find the most meaningful and smallest possible representation of the text for the model.
+The passage states:
+"Tokenizers are one of the core components of the NLP pipeline. They serve one purpose: to translate text into data that can be processed by the model. Models can only process numbers, so tokenizers need to convert our text inputs to numerical data."
+It also mentions that the goal is "to find the most meaningful representation — that is, the one that makes the most sense to the model — and, if possible, the smallest representation."
+So in essence, tokenizers act as a crucial intermediary step to transform human-readable text into a numerical format that machine learning models can understand and process effectively.</t>
         </is>
       </c>
       <c r="D49" t="inlineStr">
@@ -2364,10 +2362,9 @@
       </c>
       <c r="C50" t="inlineStr">
         <is>
-          <t>Based on the context provided, for fp16 data type on an A100 GPU, the recommended multiple for batch size is 64.
-Specifically, the context states:
+          <t>Based on the context provided, for fp16 data type on an A100 GPU, the recommended multiple for batch size is 64. Specifically, the context states:
 "For instance, for fp16 data type a multiple of 8 is recommended, unless it's an A100 GPU, in which case use multiples of 64."
-So for an A100 GPU using fp16, the batch size should be a multiple of 64 for optimal performance.</t>
+So for an A100 GPU using fp16, the batch size should ideally be a multiple of 64 to optimize performance.</t>
         </is>
       </c>
       <c r="D50" t="inlineStr">
@@ -2434,11 +2431,11 @@
       </c>
       <c r="C52" t="inlineStr">
         <is>
-          <t>According to the information provided in the context, the Nyströmformer approximates standard self-attention with O(n) time and memory complexity, where n is the length of the input sequence. Specifically:
+          <t>According to the context provided, the Nyströmformer approximates standard self-attention with O(n) time and memory complexity, where n is the length of the input sequence. Specifically:
 1. The introduction states: "The Nyströmformer is one of many efficient Transformer models that approximates standard self-attention with O(n) complexity."
 2. This is in contrast to standard self-attention, which has "a time and memory complexity of O(n^2) (where n is the length of the input sequence), making it expensive to train on long input sequences."
-3. The Nyström method achieves this linear complexity by sampling only m landmarks (where m &lt;&lt; n) from the queries and keys, rather than computing the full n x n attention matrix.
-4. The context mentions that even with just 32 or 64 landmarks, Nyströmformer can produce competitive performance compared to standard self-attention, even for long sequence lengths of 4096 or 8192 tokens.
+3. The Nyström method allows approximating the full attention matrix by sampling only some rows and columns, avoiding the need to compute the full O(n^2) matrix.
+4. The context mentions that competitive performance can be achieved "even for long sequences lengths (n=4096 or 8192)" by selecting just "32 or 64 landmarks", which enables the linear O(n) scaling.
 So in summary, the Nyströmformer reduces the quadratic O(n^2) complexity of standard self-attention to linear O(n) complexity in both time and memory, allowing it to scale more efficiently to longer input sequences.</t>
         </is>
       </c>
@@ -2505,7 +2502,7 @@
       </c>
       <c r="C54" t="inlineStr">
         <is>
-          <t>According to the context, MarkupLMFeatureExtractor uses Beautiful Soup to extract data from HTML and XML files. Specifically, the context states:
+          <t>According to the context, MarkupLMFeatureExtractor uses Beautiful Soup to extract data from HTML and XML files. Specifically, the passage states:
 "[`MarkupLMFeatureExtractor`] uses [Beautiful Soup](https://www.crummy.com/software/BeautifulSoup/bs4/doc/), a Python library for pulling data out of HTML and XML files, under the hood."</t>
         </is>
       </c>
@@ -2543,7 +2540,7 @@
 - It is described as "A scheduler that uses ancestral sampling with Euler method steps."
 - It is noted to be a fast scheduler that can often generate good outputs in 20-30 steps.
 - The scheduler is based on the original k-diffusion implementation by Katherine Crowson.
-So in summary, this scheduler combines ancestral sampling with Euler method steps for the sampling process.</t>
+So in summary, this scheduler combines ancestral sampling techniques with Euler method numerical integration steps for the sampling process.</t>
         </is>
       </c>
       <c r="D55" t="inlineStr">
@@ -2586,7 +2583,7 @@
     "runwayml/stable-diffusion-v1-5", torch_dtype=torch.float16, use_safetensors=True
 ).to("cuda")
 ```
-So the `from_pretrained()` method is used to load a checkpoint and retrieve the appropriate pipeline for a given task when using AutoPipeline.</t>
+So the `from_pretrained()` method is used to load a checkpoint and automatically retrieve the relevant pipeline for a given task when using AutoPipeline.</t>
         </is>
       </c>
       <c r="D56" t="inlineStr">
@@ -2619,7 +2616,7 @@
       </c>
       <c r="C57" t="inlineStr">
         <is>
-          <t>Based on the context provided, the parameter used to ensure that elements in a row have the same height in Gradio is `equal_height`. 
+          <t>Based on the context provided, the parameter used to ensure that elements in a row have the same height in Gradio is `equal_height`.
 Specifically, the context states:
 "To make each element in a row have the same height, use the `equal_height` parameter of the `style` method."
 It then provides this example:
@@ -2629,7 +2626,7 @@
         textbox = gr.Textbox()
         btn2 = gr.Button("按钮2")
 ```
-So the `equal_height=True` parameter is used within the `gr.Row()` constructor to ensure the elements inside that row have equal height.</t>
+So the `equal_height=True` parameter is used within the `gr.Row()` constructor to make the elements in that row have equal height.</t>
         </is>
       </c>
       <c r="D57" t="inlineStr">
@@ -2662,7 +2659,7 @@
       </c>
       <c r="C58" t="inlineStr">
         <is>
-          <t>According to the context, Hugging Face is sunsetting the Paid tier of their Inference API service and recommending Inference Endpoints as the replacement for fast, enterprise-grade inference as a service. Specifically, the blog post states:
+          <t>According to the context, Hugging Face is sunsetting the Paid tier of their Inference API service and recommending their new Inference Endpoints solution instead for fast, enterprise-grade inference as a service. Specifically, the blog post states:
 "First of all, we are sunsetting the Paid tier of the Inference API service. The Inference API will still be available for everyone to use for free. But if you're looking for a fast, enterprise-grade inference as a service, we recommend checking out our brand new solution for this: Inference Endpoints."
 So the new service replacing the paid Inference API tier is Inference Endpoints.</t>
         </is>
@@ -2699,8 +2696,8 @@
         <is>
           <t>According to the context provided, the WordPiece Model uses the special identifier "##" for continuing subwords.
 Specifically, the context states:
-"WordPiece is a subword tokenization algorithm quite similar to BPE, used mainly by Google in models like BERT. It uses a greedy algorithm, that tries to build long words first, splitting in multiple tokens when entire words don't exist in the vocabulary. This is different from BPE that starts from characters, building bigger tokens as possible. It uses the famous `##` prefix to identify tokens that are part of a word (ie not starting a word)."
-So the WordPiece Model uses "##" as a prefix to identify tokens that are part of a word but not at the start of the word.</t>
+"WordPiece: This is a subword tokenization algorithm quite similar to BPE, used mainly by Google in models like BERT. It uses a greedy algorithm, that tries to build long words first, splitting in multiple tokens when entire words don't exist in the vocabulary. This is different from BPE that starts from characters, building bigger tokens as possible. It uses the famous `##` prefix to identify tokens that are part of a word (ie not starting a word)."
+So the WordPiece model uses "##" as a prefix to identify tokens that are continuations of words, rather than the start of new words.</t>
         </is>
       </c>
       <c r="D59" t="inlineStr">
@@ -2735,7 +2732,7 @@
         <is>
           <t>Based on the context provided, the `roberta-large-mnli` checkpoint performs text classification, specifically natural language inference. The correct answer states:
 "More precisely, it classifies if two sentences are logically linked across three labels (contradiction, neutral, entailment) — a task also called natural language inference."
-So the `roberta-large-mnli` model is trained to classify the logical relationship between pairs of sentences into three categories: contradiction, neutral, or entailment. This is a type of text classification task focused on analyzing the inferential relationship between sentences.</t>
+So the `roberta-large-mnli` model is designed for natural language inference, which is a type of text classification task that determines the logical relationship between pairs of sentences.</t>
         </is>
       </c>
       <c r="D60" t="inlineStr">
@@ -2768,8 +2765,7 @@
       </c>
       <c r="C61" t="inlineStr">
         <is>
-          <t>According to the context, the FNet model replaces the self-attention layer in a BERT model with a Fourier transform. Specifically, it states:
-"The FNet model replaces the self-attention layer in a BERT model with a fourier transform which returns only the real parts of the transform."</t>
+          <t>According to the context, the FNet model replaces the self-attention layer in a BERT model with a Fourier transform. Specifically, it uses a Fourier transform that returns only the real parts of the transform.</t>
         </is>
       </c>
       <c r="D61" t="inlineStr">
@@ -2805,7 +2801,7 @@
           <t>Based on the context provided, the HuggingFace Team's software is distributed under the Apache License, Version 2.0. This is evident from the copyright notices at the beginning of the context, which state:
 "Licensed under the Apache License, Version 2.0 (the "License"); you may not use this file except in compliance with the License. You may obtain a copy of the License at
 http://www.apache.org/licenses/LICENSE-2.0"
-The Apache License 2.0 is an open source software license that allows users to use, modify, and distribute the software, subject to certain conditions outlined in the license.</t>
+The Apache License 2.0 is an open source license that allows users to use, modify, and distribute the software, subject to certain conditions outlined in the license.</t>
         </is>
       </c>
       <c r="D62" t="inlineStr">
@@ -2840,7 +2836,7 @@
         <is>
           <t>According to the context provided, Hugging Face is SOC2 Type 2 certified. Specifically, the passage states:
 "Hugging Face is also [SOC2 Type 2 certified](https://us.aicpa.org/interestareas/frc/assuranceadvisoryservices/aicpasoc2report.html), meaning we provide security certification to our customers and actively monitor and patch any security weaknesses."
-This SOC2 Type 2 certification indicates that Hugging Face has undergone an audit to verify their security practices and controls meet industry standards for protecting customer data.</t>
+This SOC2 Type 2 certification indicates that Hugging Face has undergone an audit to verify their security practices and controls meet certain standards for protecting customer data.</t>
         </is>
       </c>
       <c r="D63" t="inlineStr">
@@ -2873,7 +2869,7 @@
       </c>
       <c r="C64" t="inlineStr">
         <is>
-          <t>According to the test strategy document, the guideline for managing defects in Gradio is:
+          <t>According to the test strategy document, the guideline for managing defects states:
 "Every bug fix should be accompanied by a test that failed before the fix and passes afterwards. This test should typically be a dynamic code test but it could be a linting rule or new type if that is appropriate."
 So the type of test that should typically accompany a bug fix is a dynamic code test. The document specifies that this would usually be either a unit test or integration test.</t>
         </is>
@@ -2908,11 +2904,9 @@
       </c>
       <c r="C65" t="inlineStr">
         <is>
-          <t>The context mentions that the full code for the Stable Diffusion demo can be found at:
+          <t>According to the context provided, the full code for the Stable Diffusion demo can be found at:
 https://hf.co/spaces/stabilityai/stable-diffusion/tree/main
-Specifically, it states:
-"Note: This is a simplified version of the code needed to create the Stable Diffusion demo. See full code here: https://hf.co/spaces/stabilityai/stable-diffusion/tree/main"
-So the complete code for the Stable Diffusion demo is available at that link on the Hugging Face website.</t>
+The context mentions that the information provided is a simplified version of the code needed to create the Stable Diffusion demo, and directs readers to the full code at the above URL.</t>
         </is>
       </c>
       <c r="D65" t="inlineStr">
@@ -2948,7 +2942,7 @@
           <t>According to the context provided, you can access the logs of your Endpoints in Hugging Face Endpoints through the UI in the "Logs" tab of your Endpoint. Specifically:
 1. You can access the build logs of your Image artifacts.
 2. You can access the Container Logs during inference.
-The Container Logs are only available when your Endpoint is in the "Running" state. Additionally, if your Endpoint creation is in the "Failed" state, you can check the Build Logs to see the reason for the failure, such as wrong version of a dependency.</t>
+The Container Logs are only available when your Endpoint is in the "Running" state. Additionally, if your Endpoint creation is in the "Failed" state, you can check the Build Logs to see what the reason was, such as wrong version of a dependency.</t>
         </is>
       </c>
       <c r="D66" t="inlineStr">
